--- a/総合テスト - 2.xlsx
+++ b/総合テスト - 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="6_{83963DF0-96D6-4AA2-915D-5B6DB630928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB884A2F-20FC-447D-915D-A8074C432C0B}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="6_{83963DF0-96D6-4AA2-915D-5B6DB630928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE42827E-75D2-41B7-B827-DB4D47B68C5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="428">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1270,22 +1270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>野比のび太のアカウントのメールアドレスとパスワードを入力し、ログインを押す</t>
-    <rPh sb="0" eb="2">
-      <t>ノビ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除機能</t>
     <rPh sb="5" eb="9">
       <t>サクジョキノウ</t>
@@ -3425,81 +3409,6 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.ナビゲーションバーの「アカウント登録」をクリック
-2.アカウント権限を「管理者」で他も（姓）野比（名）のび太（カナ（姓）ノビ（カナ（名）ノビタ（メアド）nobi@mail（パスワード）nobi1（性別）男（郵便番号）5555555（都道府県）静岡県（市区町村）茶町（番地）1234（アカウント権限）管理者でアカウントを入力後確認するボタンを押す。
-</t>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ノビ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="105" eb="109">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="118" eb="122">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="123" eb="126">
-      <t>シズオカケン</t>
-    </rPh>
-    <rPh sb="127" eb="131">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>チャマチ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="151" eb="154">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="161" eb="164">
-      <t>ニュウリョクゴ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3636,25 +3545,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「account_data 」から野比花子のアカウント情報を入力し登録する</t>
-    <rPh sb="17" eb="19">
-      <t>ノビ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハナコ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント削除機能</t>
     <rPh sb="5" eb="9">
       <t>サクジョキノウ</t>
@@ -3770,28 +3660,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>既に削除フラグ無効の「えええ」のアカウントを選択し削除ボタンを押す</t>
-    <rPh sb="0" eb="1">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3937,10 +3805,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メアド「mama@」パスワード「mama」でログイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン済</t>
     <rPh sb="4" eb="5">
       <t>スミ</t>
@@ -4017,7 +3881,332 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント一覧から削除フラグが無効の「野比」アカウントを選択し、更新ボタンを押す。</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.ナビゲーションバーの「アカウント登録」をクリック
+2.アカウント権限を「管理者」で他も（姓）山田（名）花子（カナ（姓）ヤマダ（カナ（名）ハナコ（メアド）hanako@mail（パスワード）hanako（性別）女（郵便番号）0123456（都道府県）福島県（市区町村）花（番地）花（アカウント権限）管理者でアカウントを入力後確認するボタンを押す。
+</t>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="108" eb="112">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="121" eb="125">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="130" eb="134">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花子のアカウントのメールアドレスとパスワードを入力し、ログインを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strutsエラーになる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別ブラウザで同じアカウントで入るとエラー表示される</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC: Windows 11, Chrome、Edge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChromeとEdgeでそれぞれ花子のアカウントで入る</t>
+    <rPh sb="16" eb="18">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChromeとEdgeでphpMyadminでテーブルの「account_data 」を見て管理者権限の山田花子のアカウントでそれぞれ同時にログインする</t>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="46" eb="51">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>ヤマダハナコ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正アクセス</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで登録確認画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正アクセスです。とエラー表示され、ログイン画面に移行する</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接regist_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接regist_confirmとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力のエラーが出て登録画面に行く</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>両方から操作可能</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ソウサカノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「account_data 」から山田花子と同じhanako@mailを入力し登録する</t>
+    <rPh sb="17" eb="19">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既に削除フラグ無効の「な」のアカウントを選択し削除ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二重登録される</t>
+    <rPh sb="0" eb="2">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じメールのためエラー表示される</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二重削除？される</t>
+    <rPh sb="0" eb="4">
+      <t>ニジュウサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面移行できる</t>
+    <rPh sb="4" eb="8">
+      <t>ガメンイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メアド「na@mail」パスワード「na」でログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト機能なし</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧から削除フラグが無効の「な」アカウントを選択し、パスワードniに変更し更新ボタンを押す。</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
     </rPh>
@@ -4027,28 +4216,1349 @@
     <rPh sb="15" eb="17">
       <t>ムコウ</t>
     </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新可</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接regist_completeとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nullの状態でアカウント登録できる</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChromeとEdgeでそれぞれ花子のアカウントで入り、片方で操作後、もう片方で内容確認</t>
+    <rPh sb="16" eb="18">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ナイヨウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChromeとEdgeでそれぞれ花子のアカウントで入り、片方で操作後、もう片方で内容更新されているか見る</t>
+    <rPh sb="16" eb="18">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>即時反映する</t>
+    <rPh sb="0" eb="4">
+      <t>ソクジハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで登録完了画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接regist_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接update_completeとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接update_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで更新完了画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで更新確認画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接update_confirmとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接update_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力のエラーが出て更新画面に行く</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで削除確認画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接delete_confirmとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接delete_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接URLで削除完了画面に行く</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に直接delete_completeとURL入力する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で直接delete_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーが発生したためアカウント削除できません。のエラーが出て削除確認画面に移行する</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>サクジョカクニン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで登録確認画面に行く</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
     <rPh sb="19" eb="21">
-      <t>ノビ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで登録完了画面に行く</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで更新完了画面に行く</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで更新確認画面に行く</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで削除確認画面に行く</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接URLで削除完了画面に行く</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正アクセスです。とエラー表示され、TOPページに移行する</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正アクセスです。とエラー表示され、TOPページ画面に移行する</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接regist_confirmとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接regist_completeとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接update_completeとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接update_confirmとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接delete_confirmとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態でURL欄に直接delete_completeとURL入力する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接regist_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接regist_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接update_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接update_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接delete_confirmとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者でログインした状態で直接delete_completeとURL入力する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>何も入力せずログインボタン押す</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードが未入力ですとメールアドレスが未入力です。とそれぞれの入力欄の下に赤字でエラー表示される</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーが発生したためログイン情報を取得できません。としか出ない</t>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>メールアドレスを未入力でパスワードは「na」と入力する。</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスが未入力ですと入力欄の下にエラーが出る</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードを未入力でメールアドレスは「hanako@mail」と入力する。</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧が表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグの欄を見る</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「無効」となっている削除したものは表示されない</t>
+    <rPh sb="1" eb="3">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグの欄を確認する</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除済みも表示される</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、登録画面で新しくアカウント情報をすべて入力する</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、同じブラウザで全く違う任意のページを開く
+2.別のページへ行ったらブラウザバックで登録画面に戻る。</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チガ</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、登録画面で新しくアカウント情報をすべて入力し、登録確認画面までいく</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="41">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、任意のアカウントの更新画面を表示する</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、任意のアカウントの更新確認画面までいく</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーなし。ログイン画面にもいかない</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.管理者権限でログインし、任意のアカウントの更新確認画面までいく
+2.更新確認画面まで行ったら同じブラウザで全く関係のない任意のページを開く
+3.別のページへ行ったらブラウザバックで更新確認画面に戻る。</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新画面で同じブラウザで全く関係のない任意のページを開く
+2.別のページへ行ったらブラウザバックで更新画面に戻る。</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、確認するボタンを押す
+2.登録確認画面まで行ったら同じブラウザで全く関係のない任意のページを開く
+3.別のページへ行ったらブラウザバックで登録確認画面に戻る。</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="36">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
     <rPh sb="38" eb="39">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
+      <t>イ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、確認するボタンを押す
+2.登録確認画面まで行ったら同じブラウザで全く関係のない任意のページを開く
+3.別のページへ行ったらブラウザバックで登録確認画面に戻る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、同じブラウザで全く関係のない任意のページを開く
+2.別のページへ行ったらブラウザバックで登録画面に戻る。</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新画面ですべての項目入力し、確認するボタンを押す
+2.更新確認画面まで行ったら同じブラウザで全く関係のない任意のページを開く
+3.別のページへ行ったらブラウザバックで更新確認画面に戻る。</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、任意のアカウントの削除画面を表示する</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面で同じブラウザで全く関係のない任意のページを開く
+2.別のページへ行ったらブラウザバックで削除画面に戻る。</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>始めからやりなおしてください。とエラーが出てログイン画面に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>始めからやりなおしてください。とエラーが出てログイン画面に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、同じブラウザで全く関係のない任意のページを開く
+2.別のページへ行ったらブラウザバックで削除画面に戻る。</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.登録画面ですべての項目入力し、同じブラウザで全く関係のない任意のページを開く
+2.別のページへ行ったらブラウザバックで更新画面に戻る。</t>
+    <rPh sb="2" eb="6">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>31NG</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4087,18 +5597,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -4156,7 +5660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4202,22 +5706,31 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4498,10 +6011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4514,9 +6027,9 @@
     <col min="6" max="6" width="48.375" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="8" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="25" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="18">
@@ -4544,7 +6057,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -4571,15 +6084,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -4610,9 +6123,9 @@
         <v>12</v>
       </c>
       <c r="H3" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I3" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -4643,9 +6156,9 @@
         <v>12</v>
       </c>
       <c r="H4" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -4676,9 +6189,9 @@
         <v>12</v>
       </c>
       <c r="H5" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I5" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -4709,9 +6222,9 @@
         <v>12</v>
       </c>
       <c r="H6" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -4742,9 +6255,9 @@
         <v>12</v>
       </c>
       <c r="H7" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I7" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -4775,9 +6288,9 @@
         <v>12</v>
       </c>
       <c r="H8" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I8" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -4808,9 +6321,9 @@
         <v>12</v>
       </c>
       <c r="H9" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I9" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -4841,9 +6354,9 @@
         <v>12</v>
       </c>
       <c r="H10" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -4874,9 +6387,9 @@
         <v>12</v>
       </c>
       <c r="H11" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I11" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -4907,9 +6420,9 @@
         <v>12</v>
       </c>
       <c r="H12" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I12" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -4940,9 +6453,9 @@
         <v>12</v>
       </c>
       <c r="H13" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I13" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -4973,9 +6486,9 @@
         <v>12</v>
       </c>
       <c r="H14" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I14" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -5006,9 +6519,9 @@
         <v>12</v>
       </c>
       <c r="H15" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I15" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -5039,9 +6552,9 @@
         <v>12</v>
       </c>
       <c r="H16" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I16" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -5072,9 +6585,9 @@
         <v>12</v>
       </c>
       <c r="H17" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I17" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="12" t="s">
@@ -5105,9 +6618,9 @@
         <v>12</v>
       </c>
       <c r="H18" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I18" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="12" t="s">
@@ -5138,9 +6651,9 @@
         <v>12</v>
       </c>
       <c r="H19" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I19" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="12" t="s">
@@ -5171,9 +6684,9 @@
         <v>12</v>
       </c>
       <c r="H20" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I20" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="12" t="s">
@@ -5204,9 +6717,9 @@
         <v>12</v>
       </c>
       <c r="H21" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I21" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="12" t="s">
@@ -5237,9 +6750,9 @@
         <v>12</v>
       </c>
       <c r="H22" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I22" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="12" t="s">
@@ -5270,9 +6783,9 @@
         <v>12</v>
       </c>
       <c r="H23" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I23" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="12" t="s">
@@ -5282,7 +6795,7 @@
     </row>
     <row r="24" spans="1:11" ht="37.5">
       <c r="A24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>100</v>
@@ -5297,15 +6810,15 @@
         <v>102</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I24" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="12" t="s">
@@ -5315,30 +6828,30 @@
     </row>
     <row r="25" spans="1:11" ht="93.75">
       <c r="A25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="G25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I25" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="12" t="s">
@@ -5348,30 +6861,30 @@
     </row>
     <row r="26" spans="1:11" ht="56.25">
       <c r="A26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="G26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I26" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="12" t="s">
@@ -5381,30 +6894,30 @@
     </row>
     <row r="27" spans="1:11" ht="75">
       <c r="A27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I27" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="12" t="s">
@@ -5414,30 +6927,30 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="G28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I28" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="12" t="s">
@@ -5447,30 +6960,30 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="F29" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I29" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="12" t="s">
@@ -5480,30 +6993,30 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="F30" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I30" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="12" t="s">
@@ -5513,30 +7026,30 @@
     </row>
     <row r="31" spans="1:11" ht="69.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="G31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I31" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="12" t="s">
@@ -5546,30 +7059,30 @@
     </row>
     <row r="32" spans="1:11" ht="56.25">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="G32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I32" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="12" t="s">
@@ -5579,30 +7092,30 @@
     </row>
     <row r="33" spans="1:11" ht="56.25">
       <c r="A33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I33" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -5612,30 +7125,30 @@
     </row>
     <row r="34" spans="1:11" ht="37.5">
       <c r="A34" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="G34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I34" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="12" t="s">
@@ -5645,30 +7158,30 @@
     </row>
     <row r="35" spans="1:11" ht="37.5">
       <c r="A35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="G35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I35" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="12" t="s">
@@ -5678,30 +7191,30 @@
     </row>
     <row r="36" spans="1:11" ht="37.5">
       <c r="A36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="G36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I36" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="12" t="s">
@@ -5711,30 +7224,30 @@
     </row>
     <row r="37" spans="1:11" ht="37.5">
       <c r="A37" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="G37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I37" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="12" t="s">
@@ -5744,30 +7257,30 @@
     </row>
     <row r="38" spans="1:11" ht="37.5">
       <c r="A38" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="G38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I38" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="12" t="s">
@@ -5777,30 +7290,30 @@
     </row>
     <row r="39" spans="1:11" ht="37.5">
       <c r="A39" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="G39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I39" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I39" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="12" t="s">
@@ -5810,30 +7323,30 @@
     </row>
     <row r="40" spans="1:11" ht="37.5">
       <c r="A40" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="G40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I40" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="12" t="s">
@@ -5843,30 +7356,30 @@
     </row>
     <row r="41" spans="1:11" ht="37.5">
       <c r="A41" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="G41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I41" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="12" t="s">
@@ -5876,16 +7389,16 @@
     </row>
     <row r="42" spans="1:11" ht="75">
       <c r="A42" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>15</v>
@@ -5897,9 +7410,9 @@
         <v>12</v>
       </c>
       <c r="H42" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I42" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I42" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="12" t="s">
@@ -5909,13 +7422,13 @@
     </row>
     <row r="43" spans="1:11" ht="37.5">
       <c r="A43" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>17</v>
@@ -5930,9 +7443,9 @@
         <v>12</v>
       </c>
       <c r="H43" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I43" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I43" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="12" t="s">
@@ -5942,30 +7455,30 @@
     </row>
     <row r="44" spans="1:11" ht="37.5">
       <c r="A44" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="G44" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I44" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="12" t="s">
@@ -5975,30 +7488,30 @@
     </row>
     <row r="45" spans="1:11" ht="56.25">
       <c r="A45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="F45" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="G45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I45" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -6008,30 +7521,30 @@
     </row>
     <row r="46" spans="1:11" ht="37.5">
       <c r="A46" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="G46" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I46" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I46" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="12" t="s">
@@ -6041,30 +7554,30 @@
     </row>
     <row r="47" spans="1:11" ht="37.5">
       <c r="A47" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="F47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="G47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I47" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="12" t="s">
@@ -6074,30 +7587,30 @@
     </row>
     <row r="48" spans="1:11" ht="37.5">
       <c r="A48" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="G48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I48" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I48" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="12" t="s">
@@ -6107,30 +7620,30 @@
     </row>
     <row r="49" spans="1:11" ht="37.5">
       <c r="A49" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="G49" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I49" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="12" t="s">
@@ -6140,30 +7653,30 @@
     </row>
     <row r="50" spans="1:11" ht="37.5">
       <c r="A50" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="G50" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I50" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I50" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="12" t="s">
@@ -6173,30 +7686,30 @@
     </row>
     <row r="51" spans="1:11" ht="37.5">
       <c r="A51" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="G51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I51" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I51" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -6206,30 +7719,30 @@
     </row>
     <row r="52" spans="1:11" ht="37.5">
       <c r="A52" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="G52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I52" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I52" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="12" t="s">
@@ -6239,30 +7752,30 @@
     </row>
     <row r="53" spans="1:11" ht="93.75">
       <c r="A53" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="F53" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="G53" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I53" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I53" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="12" t="s">
@@ -6272,30 +7785,30 @@
     </row>
     <row r="54" spans="1:11" ht="93.75">
       <c r="A54" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="G54" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I54" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="12" t="s">
@@ -6305,30 +7818,30 @@
     </row>
     <row r="55" spans="1:11" ht="75">
       <c r="A55" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="G55" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I55" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I55" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J55" s="12" t="s">
@@ -6338,30 +7851,30 @@
     </row>
     <row r="56" spans="1:11" ht="93.75">
       <c r="A56" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="G56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I56" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="12" t="s">
@@ -6371,30 +7884,30 @@
     </row>
     <row r="57" spans="1:11" ht="93.75">
       <c r="A57" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="G57" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I57" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="12" t="s">
@@ -6404,30 +7917,30 @@
     </row>
     <row r="58" spans="1:11" ht="93.75">
       <c r="A58" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I58" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J58" s="12" t="s">
@@ -6437,30 +7950,30 @@
     </row>
     <row r="59" spans="1:11" ht="37.5">
       <c r="A59" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="G59" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I59" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J59" s="12" t="s">
@@ -6470,13 +7983,13 @@
     </row>
     <row r="60" spans="1:11" ht="37.5">
       <c r="A60" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>38</v>
@@ -6491,9 +8004,9 @@
         <v>12</v>
       </c>
       <c r="H60" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I60" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I60" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J60" s="12" t="s">
@@ -6503,13 +8016,13 @@
     </row>
     <row r="61" spans="1:11" ht="37.5">
       <c r="A61" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>40</v>
@@ -6524,9 +8037,9 @@
         <v>12</v>
       </c>
       <c r="H61" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I61" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J61" s="12" t="s">
@@ -6536,13 +8049,13 @@
     </row>
     <row r="62" spans="1:11" ht="37.5">
       <c r="A62" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>42</v>
@@ -6557,9 +8070,9 @@
         <v>12</v>
       </c>
       <c r="H62" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I62" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I62" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J62" s="12" t="s">
@@ -6569,13 +8082,13 @@
     </row>
     <row r="63" spans="1:11" ht="37.5">
       <c r="A63" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>44</v>
@@ -6590,9 +8103,9 @@
         <v>12</v>
       </c>
       <c r="H63" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I63" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I63" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J63" s="12" t="s">
@@ -6602,13 +8115,13 @@
     </row>
     <row r="64" spans="1:11" ht="56.25">
       <c r="A64" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>46</v>
@@ -6623,9 +8136,9 @@
         <v>12</v>
       </c>
       <c r="H64" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I64" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I64" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J64" s="12" t="s">
@@ -6635,13 +8148,13 @@
     </row>
     <row r="65" spans="1:11" ht="37.5">
       <c r="A65" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>48</v>
@@ -6656,9 +8169,9 @@
         <v>12</v>
       </c>
       <c r="H65" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I65" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I65" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J65" s="12" t="s">
@@ -6668,13 +8181,13 @@
     </row>
     <row r="66" spans="1:11" ht="56.25">
       <c r="A66" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>50</v>
@@ -6689,9 +8202,9 @@
         <v>12</v>
       </c>
       <c r="H66" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I66" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J66" s="12" t="s">
@@ -6701,13 +8214,13 @@
     </row>
     <row r="67" spans="1:11" ht="56.25">
       <c r="A67" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>51</v>
@@ -6722,9 +8235,9 @@
         <v>12</v>
       </c>
       <c r="H67" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I67" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I67" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J67" s="12" t="s">
@@ -6734,13 +8247,13 @@
     </row>
     <row r="68" spans="1:11" ht="56.25">
       <c r="A68" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>53</v>
@@ -6755,9 +8268,9 @@
         <v>12</v>
       </c>
       <c r="H68" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I68" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I68" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J68" s="12" t="s">
@@ -6767,13 +8280,13 @@
     </row>
     <row r="69" spans="1:11" ht="56.25">
       <c r="A69" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>55</v>
@@ -6788,9 +8301,9 @@
         <v>12</v>
       </c>
       <c r="H69" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I69" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I69" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J69" s="12" t="s">
@@ -6800,13 +8313,13 @@
     </row>
     <row r="70" spans="1:11" ht="56.25">
       <c r="A70" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>57</v>
@@ -6821,9 +8334,9 @@
         <v>12</v>
       </c>
       <c r="H70" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I70" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I70" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J70" s="12" t="s">
@@ -6833,13 +8346,13 @@
     </row>
     <row r="71" spans="1:11" ht="56.25">
       <c r="A71" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>60</v>
@@ -6854,9 +8367,9 @@
         <v>12</v>
       </c>
       <c r="H71" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I71" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I71" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J71" s="12" t="s">
@@ -6866,13 +8379,13 @@
     </row>
     <row r="72" spans="1:11" ht="56.25">
       <c r="A72" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>63</v>
@@ -6887,9 +8400,9 @@
         <v>12</v>
       </c>
       <c r="H72" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I72" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I72" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J72" s="12" t="s">
@@ -6899,13 +8412,13 @@
     </row>
     <row r="73" spans="1:11" ht="56.25">
       <c r="A73" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>66</v>
@@ -6920,9 +8433,9 @@
         <v>12</v>
       </c>
       <c r="H73" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I73" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I73" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J73" s="12" t="s">
@@ -6932,13 +8445,13 @@
     </row>
     <row r="74" spans="1:11" ht="56.25">
       <c r="A74" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>69</v>
@@ -6953,9 +8466,9 @@
         <v>12</v>
       </c>
       <c r="H74" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I74" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J74" s="12" t="s">
@@ -6965,13 +8478,13 @@
     </row>
     <row r="75" spans="1:11" ht="56.25">
       <c r="A75" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>72</v>
@@ -6986,9 +8499,9 @@
         <v>12</v>
       </c>
       <c r="H75" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I75" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I75" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J75" s="12" t="s">
@@ -6998,13 +8511,13 @@
     </row>
     <row r="76" spans="1:11" ht="56.25">
       <c r="A76" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>75</v>
@@ -7019,9 +8532,9 @@
         <v>12</v>
       </c>
       <c r="H76" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I76" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I76" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J76" s="12" t="s">
@@ -7031,13 +8544,13 @@
     </row>
     <row r="77" spans="1:11" ht="75">
       <c r="A77" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>78</v>
@@ -7052,9 +8565,9 @@
         <v>12</v>
       </c>
       <c r="H77" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I77" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I77" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="12" t="s">
@@ -7064,13 +8577,13 @@
     </row>
     <row r="78" spans="1:11" ht="75">
       <c r="A78" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>81</v>
@@ -7085,9 +8598,9 @@
         <v>12</v>
       </c>
       <c r="H78" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I78" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I78" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="12" t="s">
@@ -7097,30 +8610,30 @@
     </row>
     <row r="79" spans="1:11" ht="112.5">
       <c r="A79" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="G79" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I79" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I79" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="12" t="s">
@@ -7130,30 +8643,30 @@
     </row>
     <row r="80" spans="1:11" ht="37.5">
       <c r="A80" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E80" s="9" t="s">
+      <c r="F80" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="G80" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I80" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I80" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J80" s="12" t="s">
@@ -7163,30 +8676,30 @@
     </row>
     <row r="81" spans="1:11" ht="56.25">
       <c r="A81" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="G81" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I81" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I81" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J81" s="12" t="s">
@@ -7196,30 +8709,30 @@
     </row>
     <row r="82" spans="1:11" ht="75">
       <c r="A82" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="F82" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I82" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I82" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J82" s="12" t="s">
@@ -7229,345 +8742,1253 @@
     </row>
     <row r="83" spans="1:11" ht="75">
       <c r="A83" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>269</v>
-      </c>
       <c r="F83" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="11">
-        <v>45915</v>
-      </c>
-      <c r="I83" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I83" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="37.5">
       <c r="A84" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="F84" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K84" s="8"/>
+      <c r="K84" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="56.25">
       <c r="A85" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I85" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I85" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K85" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="37.5">
       <c r="A86" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I86" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I86" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K86" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="56.25">
       <c r="A87" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I87" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I87" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K87" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="56.25">
       <c r="A88" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="F88" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I88" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I88" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K88" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="37.5">
       <c r="A89" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I89" s="8" t="s">
+        <v>45935</v>
+      </c>
+      <c r="I89" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K89" s="8"/>
-    </row>
-    <row r="90" spans="1:11" s="22" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="21" customFormat="1">
       <c r="A90" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="20">
-        <v>45918</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K90" s="18"/>
+      <c r="H90" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="37.5">
       <c r="A91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="37.5">
+      <c r="A92" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F91" s="9" t="s">
+      <c r="G92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="37.5">
+      <c r="A93" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="1:11" ht="37.5">
+      <c r="A94" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="37.5">
+      <c r="A95" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="37.5">
+      <c r="A96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K96" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="11">
-        <v>45918</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K91" s="8"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="K92" s="8"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="K93" s="8"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="K94" s="8"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="K95" s="8"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="K96" s="8"/>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" s="8"/>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" s="8"/>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" s="8"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="8"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="8"/>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="8"/>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="8"/>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="8"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="8"/>
+    </row>
+    <row r="97" spans="1:11" ht="37.5">
+      <c r="A97" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="37.5">
+      <c r="A98" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="56.25">
+      <c r="A99" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="37.5">
+      <c r="A100" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="37.5">
+      <c r="A101" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="37.5">
+      <c r="A102" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="37.5">
+      <c r="A103" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="37.5">
+      <c r="A104" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="56.25">
+      <c r="A105" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="56.25">
+      <c r="A106" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="37.5">
+      <c r="A107" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="37.5">
+      <c r="A108" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="37.5">
+      <c r="A109" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="75">
+      <c r="A110" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="112.5">
+      <c r="A111" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="75">
+      <c r="A112" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="112.5">
+      <c r="A113" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="75">
+      <c r="A114" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="11">
+        <v>45935</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="8"/>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="8"/>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="8"/>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="8"/>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="8"/>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="8"/>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="8"/>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="8"/>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="8"/>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="8"/>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="8"/>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="8"/>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K83" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}"/>
